--- a/総合テスト/カテゴリ別表示機能/ST-T-002_結果.xlsx
+++ b/総合テスト/カテゴリ別表示機能/ST-T-002_結果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riku.yamashita\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D90F242-CB98-4BF6-905F-5E83DDC89C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67CF1AEF-773C-4205-9918-219246F2B547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0E84E515-3D20-4DA5-B9B2-A27D84896CA8}"/>
   </bookViews>
@@ -33,6 +33,25 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>↑カテゴリ変更前</t>
+    <rPh sb="5" eb="8">
+      <t>ヘンコウマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓カテゴリ変更後</t>
+    <rPh sb="5" eb="8">
+      <t>ヘンコウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -519,14 +538,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480E0162-FD2B-49B0-8325-A1E9E0CC3C0D}">
-  <dimension ref="A1"/>
+  <dimension ref="B45:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetData>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -534,6 +562,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100FB0BDFD3C69BE04CA0B6EBFBB59E4559" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="752b2ff175b05b03e0c035222de06982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6d91bb22-1267-46fa-8e61-645dc3a0f267" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1718121399b3c72a7290a669e49a9f43" ns3:_="">
     <xsd:import namespace="6d91bb22-1267-46fa-8e61-645dc3a0f267"/>
@@ -683,15 +720,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -701,6 +729,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0ED9D5-4033-4E8D-843C-F98D1C0F811B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6620213-F728-4D70-A9F3-992A87C98CB1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -718,26 +754,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0ED9D5-4033-4E8D-843C-F98D1C0F811B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7D1116C-D7AC-4B22-97BA-21C28BCF10ED}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="6d91bb22-1267-46fa-8e61-645dc3a0f267"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>